--- a/results/results-precision.xlsx
+++ b/results/results-precision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fe49316a3e0e438/Documents/Education/University/Semester 5/CM30225 Parallel Computing/Distributed Memory Coursework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fe49316a3e0e438/Documents/Education/University/Semester 5/CM30225 Parallel Computing/Distributed Memory Coursework/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{EFFA0104-6B6F-4A46-98DC-C2C573DED987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C670D5-E199-4CD6-917A-EE98D4CEF109}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{EFFA0104-6B6F-4A46-98DC-C2C573DED987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{337C8BF4-0405-460D-90DD-30B3BDDEEFA9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{53D35055-BDF4-47FF-B223-6C513515F10B}"/>
   </bookViews>
@@ -14696,16 +14696,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>575669</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>270870</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18717,7 +18717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C05C58-4F58-4255-87A6-907CE7E2C611}">
   <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="128" zoomScaleNormal="167" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="53" zoomScaleNormal="167" workbookViewId="0">
       <selection activeCell="B2" activeCellId="1" sqref="A2:A47 B2:B47"/>
     </sheetView>
   </sheetViews>
